--- a/public/xlsx/logo-marcas.xlsx
+++ b/public/xlsx/logo-marcas.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D002BB92-5887-4E87-99AE-7A77F72E9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_GIT\React\trade\public\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A78F74-0F10-4BFC-B6AF-D038BE41DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>IMAGEN</t>
-  </si>
-  <si>
     <t>Baltica</t>
   </si>
   <si>
@@ -135,13 +134,19 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661627877/LOGOS%20MARCAS/logo-Stella-Artois-720x720_whczfd.png</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>urlimagen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,11 +162,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,6 +174,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,23 +247,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,158 +578,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -746,5 +753,6 @@
     <hyperlink ref="B18" r:id="rId17" xr:uid="{7D85C5AD-C1F1-41F8-8FCB-F2C55B657BA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
 </worksheet>
 </file>
--- a/public/xlsx/logo-marcas.xlsx
+++ b/public/xlsx/logo-marcas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_GIT\React\trade\public\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_GIT\React\trade\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A78F74-0F10-4BFC-B6AF-D038BE41DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B5EEE-E8F2-47A3-BC76-AD4F23DF583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
